--- a/results/09_final_pipelines_07_08.xlsx
+++ b/results/09_final_pipelines_07_08.xlsx
@@ -439,11 +439,11 @@
   </sheetPr>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H82" activeCellId="0" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="11.52"/>
